--- a/natmiOut/OldD0/LR-pairs_lrc2p/Agrn-Lrp4.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Agrn-Lrp4.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>15.3530506256266</v>
+        <v>15.59657533333333</v>
       </c>
       <c r="H2">
-        <v>15.3530506256266</v>
+        <v>46.789726</v>
       </c>
       <c r="I2">
-        <v>0.474278730793593</v>
+        <v>0.4757744772251148</v>
       </c>
       <c r="J2">
-        <v>0.474278730793593</v>
+        <v>0.475774477225115</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.688429245304781</v>
+        <v>0.8686950000000001</v>
       </c>
       <c r="N2">
-        <v>0.688429245304781</v>
+        <v>2.606085</v>
       </c>
       <c r="O2">
-        <v>0.07495445309669707</v>
+        <v>0.08920595562802248</v>
       </c>
       <c r="P2">
-        <v>0.07495445309669707</v>
+        <v>0.08920595562802248</v>
       </c>
       <c r="Q2">
-        <v>10.56948905532622</v>
+        <v>13.54866700919</v>
       </c>
       <c r="R2">
-        <v>10.56948905532622</v>
+        <v>121.93800308271</v>
       </c>
       <c r="S2">
-        <v>0.03554930288202938</v>
+        <v>0.04244191690428919</v>
       </c>
       <c r="T2">
-        <v>0.03554930288202938</v>
+        <v>0.0424419169042892</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>15.3530506256266</v>
+        <v>15.59657533333333</v>
       </c>
       <c r="H3">
-        <v>15.3530506256266</v>
+        <v>46.789726</v>
       </c>
       <c r="I3">
-        <v>0.474278730793593</v>
+        <v>0.4757744772251148</v>
       </c>
       <c r="J3">
-        <v>0.474278730793593</v>
+        <v>0.475774477225115</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.25282359698353</v>
+        <v>4.478549</v>
       </c>
       <c r="N3">
-        <v>4.25282359698353</v>
+        <v>13.435647</v>
       </c>
       <c r="O3">
-        <v>0.4630367884611057</v>
+        <v>0.4599004752783479</v>
       </c>
       <c r="P3">
-        <v>0.4630367884611057</v>
+        <v>0.4599004752783479</v>
       </c>
       <c r="Q3">
-        <v>65.29381598634757</v>
+        <v>69.85002686252467</v>
       </c>
       <c r="R3">
-        <v>65.29381598634757</v>
+        <v>628.650241762722</v>
       </c>
       <c r="S3">
-        <v>0.2196085003420746</v>
+        <v>0.2188089082011379</v>
       </c>
       <c r="T3">
-        <v>0.2196085003420746</v>
+        <v>0.2188089082011379</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>15.3530506256266</v>
+        <v>15.59657533333333</v>
       </c>
       <c r="H4">
-        <v>15.3530506256266</v>
+        <v>46.789726</v>
       </c>
       <c r="I4">
-        <v>0.474278730793593</v>
+        <v>0.4757744772251148</v>
       </c>
       <c r="J4">
-        <v>0.474278730793593</v>
+        <v>0.475774477225115</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.24338151714933</v>
+        <v>4.390839</v>
       </c>
       <c r="N4">
-        <v>4.24338151714933</v>
+        <v>13.172517</v>
       </c>
       <c r="O4">
-        <v>0.4620087584421972</v>
+        <v>0.4508935690936296</v>
       </c>
       <c r="P4">
-        <v>0.4620087584421972</v>
+        <v>0.4508935690936296</v>
       </c>
       <c r="Q4">
-        <v>65.14885125664188</v>
+        <v>68.482051240038</v>
       </c>
       <c r="R4">
-        <v>65.14885125664188</v>
+        <v>616.338461160342</v>
       </c>
       <c r="S4">
-        <v>0.219120927569489</v>
+        <v>0.2145236521196878</v>
       </c>
       <c r="T4">
-        <v>0.219120927569489</v>
+        <v>0.2145236521196879</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.28457329240808</v>
+        <v>6.399531333333333</v>
       </c>
       <c r="H5">
-        <v>6.28457329240808</v>
+        <v>19.198594</v>
       </c>
       <c r="I5">
-        <v>0.1941398825147799</v>
+        <v>0.1952180917624358</v>
       </c>
       <c r="J5">
-        <v>0.1941398825147799</v>
+        <v>0.1952180917624358</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.688429245304781</v>
+        <v>0.8686950000000001</v>
       </c>
       <c r="N5">
-        <v>0.688429245304781</v>
+        <v>2.606085</v>
       </c>
       <c r="O5">
-        <v>0.07495445309669707</v>
+        <v>0.08920595562802248</v>
       </c>
       <c r="P5">
-        <v>0.07495445309669707</v>
+        <v>0.08920595562802248</v>
       </c>
       <c r="Q5">
-        <v>4.326484048755077</v>
+        <v>5.55924087161</v>
       </c>
       <c r="R5">
-        <v>4.326484048755077</v>
+        <v>50.03316784449</v>
       </c>
       <c r="S5">
-        <v>0.01455164871815235</v>
+        <v>0.01741461643154707</v>
       </c>
       <c r="T5">
-        <v>0.01455164871815235</v>
+        <v>0.01741461643154707</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.28457329240808</v>
+        <v>6.399531333333333</v>
       </c>
       <c r="H6">
-        <v>6.28457329240808</v>
+        <v>19.198594</v>
       </c>
       <c r="I6">
-        <v>0.1941398825147799</v>
+        <v>0.1952180917624358</v>
       </c>
       <c r="J6">
-        <v>0.1941398825147799</v>
+        <v>0.1952180917624358</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.25282359698353</v>
+        <v>4.478549</v>
       </c>
       <c r="N6">
-        <v>4.25282359698353</v>
+        <v>13.435647</v>
       </c>
       <c r="O6">
-        <v>0.4630367884611057</v>
+        <v>0.4599004752783479</v>
       </c>
       <c r="P6">
-        <v>0.4630367884611057</v>
+        <v>0.4599004752783479</v>
       </c>
       <c r="Q6">
-        <v>26.72718159492556</v>
+        <v>28.66061465336866</v>
       </c>
       <c r="R6">
-        <v>26.72718159492556</v>
+        <v>257.945531880318</v>
       </c>
       <c r="S6">
-        <v>0.08989390771186007</v>
+        <v>0.08978089318447635</v>
       </c>
       <c r="T6">
-        <v>0.08989390771186007</v>
+        <v>0.08978089318447637</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6.28457329240808</v>
+        <v>6.399531333333333</v>
       </c>
       <c r="H7">
-        <v>6.28457329240808</v>
+        <v>19.198594</v>
       </c>
       <c r="I7">
-        <v>0.1941398825147799</v>
+        <v>0.1952180917624358</v>
       </c>
       <c r="J7">
-        <v>0.1941398825147799</v>
+        <v>0.1952180917624358</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.24338151714933</v>
+        <v>4.390839</v>
       </c>
       <c r="N7">
-        <v>4.24338151714933</v>
+        <v>13.172517</v>
       </c>
       <c r="O7">
-        <v>0.4620087584421972</v>
+        <v>0.4508935690936296</v>
       </c>
       <c r="P7">
-        <v>0.4620087584421972</v>
+        <v>0.4508935690936296</v>
       </c>
       <c r="Q7">
-        <v>26.66784215217476</v>
+        <v>28.099311760122</v>
       </c>
       <c r="R7">
-        <v>26.66784215217476</v>
+        <v>252.893805841098</v>
       </c>
       <c r="S7">
-        <v>0.08969432608476749</v>
+        <v>0.08802258214641236</v>
       </c>
       <c r="T7">
-        <v>0.08969432608476749</v>
+        <v>0.08802258214641237</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>10.7337425987326</v>
+        <v>10.78533933333333</v>
       </c>
       <c r="H8">
-        <v>10.7337425987326</v>
+        <v>32.356018</v>
       </c>
       <c r="I8">
-        <v>0.3315813866916271</v>
+        <v>0.3290074310124493</v>
       </c>
       <c r="J8">
-        <v>0.3315813866916271</v>
+        <v>0.3290074310124493</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.688429245304781</v>
+        <v>0.8686950000000001</v>
       </c>
       <c r="N8">
-        <v>0.688429245304781</v>
+        <v>2.606085</v>
       </c>
       <c r="O8">
-        <v>0.07495445309669707</v>
+        <v>0.08920595562802248</v>
       </c>
       <c r="P8">
-        <v>0.07495445309669707</v>
+        <v>0.08920595562802248</v>
       </c>
       <c r="Q8">
-        <v>7.389422316541263</v>
+        <v>9.36917035217</v>
       </c>
       <c r="R8">
-        <v>7.389422316541263</v>
+        <v>84.32253316953</v>
       </c>
       <c r="S8">
-        <v>0.02485350149651534</v>
+        <v>0.02934942229218622</v>
       </c>
       <c r="T8">
-        <v>0.02485350149651534</v>
+        <v>0.02934942229218622</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>10.7337425987326</v>
+        <v>10.78533933333333</v>
       </c>
       <c r="H9">
-        <v>10.7337425987326</v>
+        <v>32.356018</v>
       </c>
       <c r="I9">
-        <v>0.3315813866916271</v>
+        <v>0.3290074310124493</v>
       </c>
       <c r="J9">
-        <v>0.3315813866916271</v>
+        <v>0.3290074310124493</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.25282359698353</v>
+        <v>4.478549</v>
       </c>
       <c r="N9">
-        <v>4.25282359698353</v>
+        <v>13.435647</v>
       </c>
       <c r="O9">
-        <v>0.4630367884611057</v>
+        <v>0.4599004752783479</v>
       </c>
       <c r="P9">
-        <v>0.4630367884611057</v>
+        <v>0.4599004752783479</v>
       </c>
       <c r="Q9">
-        <v>45.64871380783732</v>
+        <v>48.30267068596066</v>
       </c>
       <c r="R9">
-        <v>45.64871380783732</v>
+        <v>434.724036173646</v>
       </c>
       <c r="S9">
-        <v>0.153534380407171</v>
+        <v>0.1513106738927337</v>
       </c>
       <c r="T9">
-        <v>0.153534380407171</v>
+        <v>0.1513106738927337</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>10.7337425987326</v>
+        <v>10.78533933333333</v>
       </c>
       <c r="H10">
-        <v>10.7337425987326</v>
+        <v>32.356018</v>
       </c>
       <c r="I10">
-        <v>0.3315813866916271</v>
+        <v>0.3290074310124493</v>
       </c>
       <c r="J10">
-        <v>0.3315813866916271</v>
+        <v>0.3290074310124493</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.24338151714933</v>
+        <v>4.390839</v>
       </c>
       <c r="N10">
-        <v>4.24338151714933</v>
+        <v>13.172517</v>
       </c>
       <c r="O10">
-        <v>0.4620087584421972</v>
+        <v>0.4508935690936296</v>
       </c>
       <c r="P10">
-        <v>0.4620087584421972</v>
+        <v>0.4508935690936296</v>
       </c>
       <c r="Q10">
-        <v>45.54736495330033</v>
+        <v>47.35668857303399</v>
       </c>
       <c r="R10">
-        <v>45.54736495330033</v>
+        <v>426.210197157306</v>
       </c>
       <c r="S10">
-        <v>0.1531935047879407</v>
+        <v>0.1483473348275294</v>
       </c>
       <c r="T10">
-        <v>0.1531935047879407</v>
+        <v>0.1483473348275294</v>
       </c>
     </row>
   </sheetData>
